--- a/data/Banana_Project_-_Descriptive_test_-_Raw_Data.xlsx
+++ b/data/Banana_Project_-_Descriptive_test_-_Raw_Data.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1066" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1123" uniqueCount="222">
   <si>
     <t>Data as of 29 June 2023</t>
   </si>
@@ -113,6 +113,21 @@
   </si>
   <si>
     <t>1010</t>
+  </si>
+  <si>
+    <t>1011</t>
+  </si>
+  <si>
+    <t>1012</t>
+  </si>
+  <si>
+    <t>1013</t>
+  </si>
+  <si>
+    <t>1014</t>
+  </si>
+  <si>
+    <t/>
   </si>
   <si>
     <t>Sample ID</t>
@@ -300,9 +315,6 @@
   </si>
   <si>
     <t>What is your nationality (i.e. Austrian, Bangladeshi, Japanese, Ugandan, Swedish, etc.)</t>
-  </si>
-  <si>
-    <t/>
   </si>
   <si>
     <t>Q5: Multiple Selection</t>
@@ -1378,8 +1390,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{a6cea5dd-a117-41f7-9fdc-9cd3fbe9bf59}">
-  <dimension ref="A1:F21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ade7489e-7b8c-4446-b5a8-317bb8a5ef11}">
+  <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" topLeftCell="A1">
       <selection pane="topLeft" activeCell="A1" sqref="A1"/>
@@ -1654,8 +1666,84 @@
         <v>45106.590450266202</v>
       </c>
       <c r="F21" s="3">
-        <v>45106.612182326389</v>
-      </c>
+        <v>45106.614894710649</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="12.75">
+      <c r="A22">
+        <v>1011</v>
+      </c>
+      <c r="B22" t="s">
+        <v>31</v>
+      </c>
+      <c r="C22" t="s">
+        <v>15</v>
+      </c>
+      <c r="D22" t="s">
+        <v>16</v>
+      </c>
+      <c r="E22" s="3">
+        <v>45106.622179907405</v>
+      </c>
+      <c r="F22" s="3">
+        <v>45106.625960300924</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="12.75">
+      <c r="A23">
+        <v>1012</v>
+      </c>
+      <c r="B23" t="s">
+        <v>32</v>
+      </c>
+      <c r="C23" t="s">
+        <v>15</v>
+      </c>
+      <c r="D23" t="s">
+        <v>18</v>
+      </c>
+      <c r="E23" s="3">
+        <v>45106.624673078702</v>
+      </c>
+      <c r="F23" s="3">
+        <v>45106.62766859954</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="12.75">
+      <c r="A24">
+        <v>1013</v>
+      </c>
+      <c r="B24" t="s">
+        <v>33</v>
+      </c>
+      <c r="C24" t="s">
+        <v>15</v>
+      </c>
+      <c r="D24" t="s">
+        <v>20</v>
+      </c>
+      <c r="E24" s="3">
+        <v>45106.626800451391</v>
+      </c>
+      <c r="F24" s="3">
+        <v>45106.627543692128</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="12.75">
+      <c r="A25">
+        <v>1014</v>
+      </c>
+      <c r="B25" t="s">
+        <v>34</v>
+      </c>
+      <c r="C25" t="s">
+        <v>15</v>
+      </c>
+      <c r="D25" t="s">
+        <v>35</v>
+      </c>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -1674,15 +1762,15 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait"/>
   <ignoredErrors>
-    <ignoredError sqref="A1:F21" numberStoredAsText="1"/>
-    <ignoredError sqref="A1:F21" numberStoredAsText="1"/>
+    <ignoredError sqref="A1:F25" numberStoredAsText="1"/>
+    <ignoredError sqref="A1:F25" numberStoredAsText="1"/>
   </ignoredErrors>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00a8b0b6-380c-4eee-ae39-3bf116c5170a}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{fff1d5f8-a9dd-48bc-8696-a1db555ed87a}">
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="A1"/>
@@ -1699,145 +1787,145 @@
   <sheetData>
     <row r="1" spans="1:6" ht="12.75">
       <c r="A1" s="4" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="F1" s="4"/>
     </row>
     <row r="2" spans="1:5" ht="12.75">
       <c r="A2" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="B2" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="E2" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="12.75">
       <c r="A3" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="B3" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="E3" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="12.75">
       <c r="A4" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="B4" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="12.75">
       <c r="A5" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="B5" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="C5" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="E5" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="12.75">
       <c r="A6" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="B6" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="C6" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="E6" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="12.75">
       <c r="A7" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="B7" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="C7" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="E7" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="12.75">
       <c r="A8" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="B8" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="C8" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="E8" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="12.75">
       <c r="A9" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="B9" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="E9" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="12.75">
       <c r="A10" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="B10" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="E10" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="12.75">
       <c r="A11" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="B11" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="C11" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="E11" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="12.75">
@@ -1845,24 +1933,24 @@
         <v>16</v>
       </c>
       <c r="B12" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="C12" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="E12" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="12.75">
       <c r="A13" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="B13" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="E13" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -1875,7 +1963,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4bd0b726-1225-4deb-b916-8e3bb28a9a1a}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31572899-87ab-42d0-ad28-e4db7431970b}">
   <sheetPr>
     <tabColor rgb="FF63666A"/>
   </sheetPr>
@@ -1922,7 +2010,7 @@
         <v>12</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -1938,11 +2026,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{660efb34-22d5-4c4c-9ce7-bea8858a0c05}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{e0abcad8-9629-4bde-ac66-d5e9d3b950aa}">
   <sheetPr>
     <tabColor rgb="FFD90401"/>
   </sheetPr>
-  <dimension ref="A1:AE13"/>
+  <dimension ref="A1:AE14"/>
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="A1">
       <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
@@ -1978,29 +2066,29 @@
       <c r="D1" s="7"/>
       <c r="E1" s="7"/>
       <c r="F1" s="14" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="I1" s="14" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="J1" s="6" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="K1" s="14" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="L1" s="14"/>
       <c r="M1" s="14"/>
       <c r="N1" s="14"/>
       <c r="O1" s="14"/>
       <c r="P1" s="6" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="W1" s="14" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="X1" s="14"/>
       <c r="Y1" s="14"/>
@@ -2009,39 +2097,39 @@
       <c r="AB1" s="14"/>
       <c r="AC1" s="14"/>
       <c r="AD1" s="6" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="AE1" s="14" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
     </row>
     <row r="2" spans="4:31" s="9" customFormat="1" ht="30" customHeight="1">
       <c r="D2" s="8"/>
       <c r="E2" s="8"/>
       <c r="F2" s="15" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="I2" s="15" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="J2" s="9" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="K2" s="15" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="L2" s="15"/>
       <c r="M2" s="15"/>
       <c r="N2" s="15"/>
       <c r="O2" s="15"/>
       <c r="P2" s="9" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="W2" s="15" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="X2" s="15"/>
       <c r="Y2" s="15"/>
@@ -2050,92 +2138,92 @@
       <c r="AB2" s="15"/>
       <c r="AC2" s="15"/>
       <c r="AD2" s="9" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="AE2" s="15" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
     </row>
     <row r="3" spans="4:31" s="12" customFormat="1" ht="131.25" customHeight="1">
       <c r="D3" s="11"/>
       <c r="E3" s="11"/>
       <c r="F3" s="20" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="G3" s="12" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="H3" s="12" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="I3" s="20" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="J3" s="12" t="s">
-        <v>91</v>
+        <v>35</v>
       </c>
       <c r="K3" s="20" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="L3" s="20" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="M3" s="20" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="N3" s="20" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="O3" s="20" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="P3" s="12" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="Q3" s="12" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="R3" s="12" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="S3" s="12" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="T3" s="12" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="U3" s="12" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="V3" s="12" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="W3" s="20" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="X3" s="20" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="Y3" s="20" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="Z3" s="20" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="AA3" s="20" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="AB3" s="20" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="AC3" s="20" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="AD3" s="12" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="AE3" s="20" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
     </row>
     <row r="4" spans="1:31" s="10" customFormat="1" ht="12.75">
@@ -2155,82 +2243,82 @@
         <v>12</v>
       </c>
       <c r="F4" s="10" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="G4" s="10" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="H4" s="10" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="I4" s="10" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="J4" s="10" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="K4" s="10" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="L4" s="10" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="M4" s="10" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="N4" s="10" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="O4" s="10" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="P4" s="10" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="Q4" s="10" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="R4" s="10" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="S4" s="10" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="T4" s="10" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="U4" s="10" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="V4" s="10" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="W4" s="10" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="X4" s="10" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="Y4" s="10" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="Z4" s="10" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="AA4" s="10" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="AB4" s="10" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="AC4" s="10" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="AD4" s="10" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="AE4" s="10" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
     </row>
     <row r="5" spans="1:31" s="19" customFormat="1" ht="12.75">
@@ -2256,13 +2344,13 @@
         <v>1</v>
       </c>
       <c r="H5" s="16" t="s">
-        <v>91</v>
+        <v>35</v>
       </c>
       <c r="I5" s="18">
         <v>1</v>
       </c>
       <c r="J5" s="16" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="K5" s="18">
         <v>0</v>
@@ -2298,7 +2386,7 @@
         <v>0</v>
       </c>
       <c r="AC5" s="18" t="s">
-        <v>91</v>
+        <v>35</v>
       </c>
       <c r="AD5" s="16">
         <v>7</v>
@@ -2330,13 +2418,13 @@
         <v>1</v>
       </c>
       <c r="H6" t="s">
-        <v>91</v>
+        <v>35</v>
       </c>
       <c r="I6" s="13">
         <v>1</v>
       </c>
       <c r="J6" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="K6" s="13">
         <v>0</v>
@@ -2372,7 +2460,7 @@
         <v>0</v>
       </c>
       <c r="AC6" s="13" t="s">
-        <v>91</v>
+        <v>35</v>
       </c>
       <c r="AD6">
         <v>7</v>
@@ -2404,13 +2492,13 @@
         <v>1</v>
       </c>
       <c r="H7" t="s">
-        <v>91</v>
+        <v>35</v>
       </c>
       <c r="I7" s="13">
         <v>1</v>
       </c>
       <c r="J7" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="K7" s="13">
         <v>0</v>
@@ -2446,7 +2534,7 @@
         <v>0</v>
       </c>
       <c r="AC7" s="13" t="s">
-        <v>91</v>
+        <v>35</v>
       </c>
       <c r="AD7">
         <v>4</v>
@@ -2478,13 +2566,13 @@
         <v>1</v>
       </c>
       <c r="H8" t="s">
-        <v>91</v>
+        <v>35</v>
       </c>
       <c r="I8" s="13">
         <v>1</v>
       </c>
       <c r="J8" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="K8" s="13">
         <v>0</v>
@@ -2520,7 +2608,7 @@
         <v>0</v>
       </c>
       <c r="AC8" s="13" t="s">
-        <v>91</v>
+        <v>35</v>
       </c>
       <c r="AD8">
         <v>5</v>
@@ -2552,13 +2640,13 @@
         <v>2</v>
       </c>
       <c r="H9" t="s">
-        <v>91</v>
+        <v>35</v>
       </c>
       <c r="I9" s="13">
         <v>2</v>
       </c>
       <c r="J9" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="K9" s="13">
         <v>0</v>
@@ -2594,7 +2682,7 @@
         <v>0</v>
       </c>
       <c r="V9" t="s">
-        <v>91</v>
+        <v>35</v>
       </c>
       <c r="W9" s="13">
         <v>0</v>
@@ -2615,7 +2703,7 @@
         <v>0</v>
       </c>
       <c r="AC9" s="13" t="s">
-        <v>91</v>
+        <v>35</v>
       </c>
       <c r="AD9">
         <v>7</v>
@@ -2647,13 +2735,13 @@
         <v>2</v>
       </c>
       <c r="H10" t="s">
-        <v>91</v>
+        <v>35</v>
       </c>
       <c r="I10" s="13">
         <v>2</v>
       </c>
       <c r="J10" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="K10" s="13">
         <v>0</v>
@@ -2689,7 +2777,7 @@
         <v>1</v>
       </c>
       <c r="V10" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="W10" s="13">
         <v>1</v>
@@ -2710,7 +2798,7 @@
         <v>0</v>
       </c>
       <c r="AC10" s="13" t="s">
-        <v>91</v>
+        <v>35</v>
       </c>
       <c r="AD10">
         <v>8</v>
@@ -2742,13 +2830,13 @@
         <v>1</v>
       </c>
       <c r="H11" t="s">
-        <v>91</v>
+        <v>35</v>
       </c>
       <c r="I11" s="13">
         <v>1</v>
       </c>
       <c r="J11" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="K11" s="13">
         <v>0</v>
@@ -2784,7 +2872,7 @@
         <v>0</v>
       </c>
       <c r="AC11" s="13" t="s">
-        <v>91</v>
+        <v>35</v>
       </c>
       <c r="AD11">
         <v>4</v>
@@ -2816,13 +2904,13 @@
         <v>1</v>
       </c>
       <c r="H12" t="s">
-        <v>91</v>
+        <v>35</v>
       </c>
       <c r="I12" s="13">
         <v>1</v>
       </c>
       <c r="J12" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="K12" s="13">
         <v>0</v>
@@ -2858,7 +2946,7 @@
         <v>0</v>
       </c>
       <c r="AC12" s="13" t="s">
-        <v>91</v>
+        <v>35</v>
       </c>
       <c r="AD12">
         <v>3</v>
@@ -2890,13 +2978,13 @@
         <v>1</v>
       </c>
       <c r="H13" t="s">
-        <v>91</v>
+        <v>35</v>
       </c>
       <c r="I13" s="13">
         <v>1</v>
       </c>
       <c r="J13" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="K13" s="13">
         <v>0</v>
@@ -2932,7 +3020,7 @@
         <v>1</v>
       </c>
       <c r="V13" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="W13" s="13">
         <v>0</v>
@@ -2953,12 +3041,86 @@
         <v>1</v>
       </c>
       <c r="AC13" s="13" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="AD13">
         <v>7</v>
       </c>
       <c r="AE13" s="13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" ht="12.75">
+      <c r="A14">
+        <v>1010</v>
+      </c>
+      <c r="B14" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14" t="s">
+        <v>22</v>
+      </c>
+      <c r="D14" s="5">
+        <v>45106.614093923614</v>
+      </c>
+      <c r="E14" s="5">
+        <v>45106.614894710649</v>
+      </c>
+      <c r="F14" s="13">
+        <v>22</v>
+      </c>
+      <c r="G14">
+        <v>1</v>
+      </c>
+      <c r="H14" t="s">
+        <v>35</v>
+      </c>
+      <c r="I14" s="13">
+        <v>1</v>
+      </c>
+      <c r="J14" t="s">
+        <v>145</v>
+      </c>
+      <c r="K14" s="13">
+        <v>0</v>
+      </c>
+      <c r="L14" s="13">
+        <v>0</v>
+      </c>
+      <c r="M14" s="13">
+        <v>0</v>
+      </c>
+      <c r="N14" s="13">
+        <v>1</v>
+      </c>
+      <c r="O14" s="13">
+        <v>0</v>
+      </c>
+      <c r="W14" s="13">
+        <v>1</v>
+      </c>
+      <c r="X14" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="13">
+        <v>0</v>
+      </c>
+      <c r="Z14" s="13">
+        <v>0</v>
+      </c>
+      <c r="AA14" s="13">
+        <v>0</v>
+      </c>
+      <c r="AB14" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC14" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="AD14">
+        <v>8</v>
+      </c>
+      <c r="AE14" s="13">
         <v>4</v>
       </c>
     </row>
@@ -2978,17 +3140,17 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait"/>
   <ignoredErrors>
-    <ignoredError sqref="A1:AE13" numberStoredAsText="1"/>
+    <ignoredError sqref="A1:AE14" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{989e7fb5-e3c1-4ca2-8891-f512a143e49a}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{a755db69-15bf-4794-9ddb-d7569684cbfc}">
   <sheetPr>
     <tabColor rgb="FF30628F"/>
   </sheetPr>
-  <dimension ref="A1:AC112"/>
+  <dimension ref="A1:AC114"/>
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="A1">
       <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
@@ -3027,7 +3189,7 @@
       <c r="D1" s="7"/>
       <c r="E1" s="7"/>
       <c r="I1" s="14" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="J1" s="14"/>
       <c r="K1" s="14"/>
@@ -3040,41 +3202,41 @@
       <c r="R1" s="14"/>
       <c r="S1" s="14"/>
       <c r="T1" s="6" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="U1" s="14" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="V1" s="6" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="W1" s="14" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="X1" s="6" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="Y1" s="14" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="Z1" s="6" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="AA1" s="14" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="AB1" s="6" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="AC1" s="14" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
     </row>
     <row r="2" spans="4:29" s="9" customFormat="1" ht="30" customHeight="1">
       <c r="D2" s="8"/>
       <c r="E2" s="8"/>
       <c r="I2" s="15" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="J2" s="15"/>
       <c r="K2" s="15"/>
@@ -3087,101 +3249,101 @@
       <c r="R2" s="15"/>
       <c r="S2" s="15"/>
       <c r="T2" s="9" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="U2" s="15" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="V2" s="9" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="W2" s="15" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="X2" s="9" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="Y2" s="15" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="Z2" s="9" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="AA2" s="15" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="AB2" s="9" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="AC2" s="15" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
     </row>
     <row r="3" spans="4:29" s="12" customFormat="1" ht="131.25" customHeight="1">
       <c r="D3" s="11"/>
       <c r="E3" s="11"/>
       <c r="I3" s="20" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="J3" s="20" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="K3" s="20" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="L3" s="20" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="M3" s="20" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="N3" s="20" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="O3" s="20" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="P3" s="20" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="Q3" s="20" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="R3" s="20" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="S3" s="20" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="T3" s="12" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="U3" s="20" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="V3" s="12" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="W3" s="20" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="X3" s="12" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="Y3" s="20" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="Z3" s="12" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="AA3" s="20" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="AB3" s="12" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="AC3" s="20" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
     </row>
     <row r="4" spans="1:29" s="10" customFormat="1" ht="12.75">
@@ -3201,76 +3363,76 @@
         <v>12</v>
       </c>
       <c r="F4" s="10" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="G4" s="10" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="H4" s="10" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="I4" s="10" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="J4" s="10" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="K4" s="10" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="L4" s="10" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="M4" s="10" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="N4" s="10" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="O4" s="10" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="P4" s="10" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="Q4" s="10" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="R4" s="10" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="S4" s="10" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="T4" s="10" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="U4" s="10" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="V4" s="10" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="W4" s="10" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="X4" s="10" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="Y4" s="10" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="Z4" s="10" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="AA4" s="10" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="AB4" s="10" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="AC4" s="10" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
     </row>
     <row r="5" spans="1:29" s="19" customFormat="1" ht="12.75">
@@ -3293,10 +3455,10 @@
         <v>9</v>
       </c>
       <c r="G5" s="16" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="H5" s="16" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="I5" s="18">
         <v>0</v>
@@ -3362,10 +3524,10 @@
         <v>17</v>
       </c>
       <c r="G6" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="H6" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="I6" s="13">
         <v>0</v>
@@ -3427,10 +3589,10 @@
         <v>15</v>
       </c>
       <c r="G7" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="H7" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="I7" s="13">
         <v>1</v>
@@ -3492,10 +3654,10 @@
         <v>18</v>
       </c>
       <c r="G8" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="H8" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="I8" s="13">
         <v>1</v>
@@ -3560,10 +3722,10 @@
         <v>13</v>
       </c>
       <c r="G9" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="H9" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="I9" s="13">
         <v>0</v>
@@ -3625,10 +3787,10 @@
         <v>14</v>
       </c>
       <c r="G10" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="H10" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="I10" s="13">
         <v>0</v>
@@ -3690,10 +3852,10 @@
         <v>11</v>
       </c>
       <c r="G11" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="H11" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="I11" s="13">
         <v>1</v>
@@ -3755,10 +3917,10 @@
         <v>19</v>
       </c>
       <c r="G12" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="H12" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="I12" s="13">
         <v>0</v>
@@ -3820,10 +3982,10 @@
         <v>12</v>
       </c>
       <c r="G13" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="H13" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="I13" s="13">
         <v>0</v>
@@ -3882,10 +4044,10 @@
         <v>16</v>
       </c>
       <c r="G14" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="H14" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="I14" s="13">
         <v>0</v>
@@ -3950,7 +4112,7 @@
         <v>16</v>
       </c>
       <c r="H15" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="I15" s="13">
         <v>0</v>
@@ -4012,10 +4174,10 @@
         <v>12</v>
       </c>
       <c r="G16" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="H16" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="I16" s="13">
         <v>0</v>
@@ -4080,10 +4242,10 @@
         <v>13</v>
       </c>
       <c r="G17" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="H17" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="I17" s="13">
         <v>0</v>
@@ -4145,10 +4307,10 @@
         <v>11</v>
       </c>
       <c r="G18" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="H18" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="I18" s="13">
         <v>0</v>
@@ -4213,10 +4375,10 @@
         <v>17</v>
       </c>
       <c r="G19" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="H19" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="I19" s="13">
         <v>0</v>
@@ -4278,10 +4440,10 @@
         <v>9</v>
       </c>
       <c r="G20" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="H20" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="I20" s="13">
         <v>0</v>
@@ -4346,10 +4508,10 @@
         <v>18</v>
       </c>
       <c r="G21" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="H21" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="I21" s="13">
         <v>1</v>
@@ -4414,10 +4576,10 @@
         <v>10</v>
       </c>
       <c r="G22" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="H22" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="I22" s="13">
         <v>1</v>
@@ -4479,10 +4641,10 @@
         <v>15</v>
       </c>
       <c r="G23" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="H23" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="I23" s="13">
         <v>0</v>
@@ -4547,10 +4709,10 @@
         <v>16</v>
       </c>
       <c r="G24" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="H24" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="I24" s="13">
         <v>0</v>
@@ -4618,10 +4780,10 @@
         <v>19</v>
       </c>
       <c r="G25" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="H25" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="I25" s="13">
         <v>0</v>
@@ -4686,7 +4848,7 @@
         <v>16</v>
       </c>
       <c r="H26" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="I26" s="13">
         <v>0</v>
@@ -4748,10 +4910,10 @@
         <v>13</v>
       </c>
       <c r="G27" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="H27" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="I27" s="13">
         <v>1</v>
@@ -4819,10 +4981,10 @@
         <v>18</v>
       </c>
       <c r="G28" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="H28" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="I28" s="13">
         <v>1</v>
@@ -4887,10 +5049,10 @@
         <v>19</v>
       </c>
       <c r="G29" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="H29" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="I29" s="13">
         <v>1</v>
@@ -4961,10 +5123,10 @@
         <v>14</v>
       </c>
       <c r="G30" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="H30" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="I30" s="13">
         <v>1</v>
@@ -5035,10 +5197,10 @@
         <v>17</v>
       </c>
       <c r="G31" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="H31" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="I31" s="13">
         <v>0</v>
@@ -5100,10 +5262,10 @@
         <v>10</v>
       </c>
       <c r="G32" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="H32" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="I32" s="13">
         <v>0</v>
@@ -5171,10 +5333,10 @@
         <v>15</v>
       </c>
       <c r="G33" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="H33" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="I33" s="13">
         <v>1</v>
@@ -5242,10 +5404,10 @@
         <v>16</v>
       </c>
       <c r="G34" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="H34" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="I34" s="13">
         <v>0</v>
@@ -5310,10 +5472,10 @@
         <v>9</v>
       </c>
       <c r="G35" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="H35" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="I35" s="13">
         <v>0</v>
@@ -5375,10 +5537,10 @@
         <v>12</v>
       </c>
       <c r="G36" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="H36" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="I36" s="13">
         <v>0</v>
@@ -5446,7 +5608,7 @@
         <v>16</v>
       </c>
       <c r="H37" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="I37" s="13">
         <v>0</v>
@@ -5514,10 +5676,10 @@
         <v>18</v>
       </c>
       <c r="G38" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="H38" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="I38" s="13">
         <v>1</v>
@@ -5588,10 +5750,10 @@
         <v>10</v>
       </c>
       <c r="G39" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="H39" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="I39" s="13">
         <v>1</v>
@@ -5659,10 +5821,10 @@
         <v>12</v>
       </c>
       <c r="G40" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="H40" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="I40" s="13">
         <v>1</v>
@@ -5733,10 +5895,10 @@
         <v>11</v>
       </c>
       <c r="G41" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="H41" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="I41" s="13">
         <v>1</v>
@@ -5810,10 +5972,10 @@
         <v>14</v>
       </c>
       <c r="G42" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="H42" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="I42" s="13">
         <v>1</v>
@@ -5881,10 +6043,10 @@
         <v>15</v>
       </c>
       <c r="G43" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="H43" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="I43" s="13">
         <v>1</v>
@@ -5949,10 +6111,10 @@
         <v>16</v>
       </c>
       <c r="G44" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="H44" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="I44" s="13">
         <v>1</v>
@@ -6020,10 +6182,10 @@
         <v>9</v>
       </c>
       <c r="G45" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="H45" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="I45" s="13">
         <v>0</v>
@@ -6097,10 +6259,10 @@
         <v>17</v>
       </c>
       <c r="G46" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="H46" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="I46" s="13">
         <v>1</v>
@@ -6168,10 +6330,10 @@
         <v>13</v>
       </c>
       <c r="G47" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="H47" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="I47" s="13">
         <v>1</v>
@@ -6245,7 +6407,7 @@
         <v>16</v>
       </c>
       <c r="H48" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="I48" s="13">
         <v>0</v>
@@ -6316,10 +6478,10 @@
         <v>19</v>
       </c>
       <c r="G49" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="H49" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="I49" s="13">
         <v>1</v>
@@ -6384,10 +6546,10 @@
         <v>12</v>
       </c>
       <c r="G50" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="H50" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="I50" s="13">
         <v>1</v>
@@ -6449,10 +6611,10 @@
         <v>14</v>
       </c>
       <c r="G51" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="H51" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="I51" s="13">
         <v>1</v>
@@ -6517,10 +6679,10 @@
         <v>9</v>
       </c>
       <c r="G52" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="H52" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="I52" s="13">
         <v>1</v>
@@ -6582,10 +6744,10 @@
         <v>16</v>
       </c>
       <c r="G53" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="H53" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="I53" s="13">
         <v>1</v>
@@ -6650,10 +6812,10 @@
         <v>13</v>
       </c>
       <c r="G54" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="H54" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="I54" s="13">
         <v>1</v>
@@ -6718,10 +6880,10 @@
         <v>18</v>
       </c>
       <c r="G55" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="H55" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="I55" s="13">
         <v>1</v>
@@ -6789,10 +6951,10 @@
         <v>10</v>
       </c>
       <c r="G56" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="H56" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="I56" s="13">
         <v>1</v>
@@ -6857,10 +7019,10 @@
         <v>15</v>
       </c>
       <c r="G57" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="H57" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="I57" s="13">
         <v>1</v>
@@ -6928,10 +7090,10 @@
         <v>11</v>
       </c>
       <c r="G58" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="H58" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="I58" s="13">
         <v>0</v>
@@ -7002,7 +7164,7 @@
         <v>16</v>
       </c>
       <c r="H59" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="I59" s="13">
         <v>1</v>
@@ -7067,10 +7229,10 @@
         <v>16</v>
       </c>
       <c r="G60" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="H60" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="I60" s="13">
         <v>0</v>
@@ -7132,10 +7294,10 @@
         <v>9</v>
       </c>
       <c r="G61" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="H61" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="I61" s="13">
         <v>1</v>
@@ -7200,10 +7362,10 @@
         <v>10</v>
       </c>
       <c r="G62" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="H62" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="I62" s="13">
         <v>0</v>
@@ -7265,10 +7427,10 @@
         <v>13</v>
       </c>
       <c r="G63" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="H63" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="I63" s="13">
         <v>1</v>
@@ -7333,10 +7495,10 @@
         <v>12</v>
       </c>
       <c r="G64" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="H64" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="I64" s="13">
         <v>0</v>
@@ -7401,10 +7563,10 @@
         <v>17</v>
       </c>
       <c r="G65" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="H65" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="I65" s="13">
         <v>0</v>
@@ -7469,10 +7631,10 @@
         <v>14</v>
       </c>
       <c r="G66" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="H66" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="I66" s="13">
         <v>1</v>
@@ -7543,10 +7705,10 @@
         <v>11</v>
       </c>
       <c r="G67" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="H67" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="I67" s="13">
         <v>0</v>
@@ -7611,10 +7773,10 @@
         <v>19</v>
       </c>
       <c r="G68" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="H68" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="I68" s="13">
         <v>0</v>
@@ -7679,10 +7841,10 @@
         <v>15</v>
       </c>
       <c r="G69" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="H69" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="I69" s="13">
         <v>0</v>
@@ -7756,7 +7918,7 @@
         <v>16</v>
       </c>
       <c r="H70" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="I70" s="13">
         <v>1</v>
@@ -7821,10 +7983,10 @@
         <v>15</v>
       </c>
       <c r="G71" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="H71" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="I71" s="13">
         <v>1</v>
@@ -7883,10 +8045,10 @@
         <v>16</v>
       </c>
       <c r="G72" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="H72" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="I72" s="13">
         <v>0</v>
@@ -7948,10 +8110,10 @@
         <v>18</v>
       </c>
       <c r="G73" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="H73" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="I73" s="13">
         <v>0</v>
@@ -8013,10 +8175,10 @@
         <v>12</v>
       </c>
       <c r="G74" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="H74" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="I74" s="13">
         <v>0</v>
@@ -8075,10 +8237,10 @@
         <v>19</v>
       </c>
       <c r="G75" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="H75" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="I75" s="13">
         <v>1</v>
@@ -8137,10 +8299,10 @@
         <v>9</v>
       </c>
       <c r="G76" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="H76" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="I76" s="13">
         <v>0</v>
@@ -8202,10 +8364,10 @@
         <v>17</v>
       </c>
       <c r="G77" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="H77" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="I77" s="13">
         <v>1</v>
@@ -8264,10 +8426,10 @@
         <v>14</v>
       </c>
       <c r="G78" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="H78" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="I78" s="13">
         <v>1</v>
@@ -8329,10 +8491,10 @@
         <v>11</v>
       </c>
       <c r="G79" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="H79" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="I79" s="13">
         <v>1</v>
@@ -8391,10 +8553,10 @@
         <v>10</v>
       </c>
       <c r="G80" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="H80" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="I80" s="13">
         <v>0</v>
@@ -8459,7 +8621,7 @@
         <v>16</v>
       </c>
       <c r="H81" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="I81" s="13">
         <v>1</v>
@@ -8521,10 +8683,10 @@
         <v>17</v>
       </c>
       <c r="G82" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="H82" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="I82" s="13">
         <v>1</v>
@@ -8592,10 +8754,10 @@
         <v>14</v>
       </c>
       <c r="G83" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="H83" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="I83" s="13">
         <v>1</v>
@@ -8663,10 +8825,10 @@
         <v>16</v>
       </c>
       <c r="G84" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="H84" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="I84" s="13">
         <v>1</v>
@@ -8731,10 +8893,10 @@
         <v>10</v>
       </c>
       <c r="G85" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="H85" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="I85" s="13">
         <v>1</v>
@@ -8802,10 +8964,10 @@
         <v>18</v>
       </c>
       <c r="G86" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="H86" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="I86" s="13">
         <v>1</v>
@@ -8876,10 +9038,10 @@
         <v>11</v>
       </c>
       <c r="G87" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="H87" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="I87" s="13">
         <v>0</v>
@@ -8944,10 +9106,10 @@
         <v>19</v>
       </c>
       <c r="G88" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="H88" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="I88" s="13">
         <v>0</v>
@@ -9012,10 +9174,10 @@
         <v>12</v>
       </c>
       <c r="G89" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="H89" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="I89" s="13">
         <v>0</v>
@@ -9086,10 +9248,10 @@
         <v>13</v>
       </c>
       <c r="G90" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="H90" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="I90" s="13">
         <v>1</v>
@@ -9157,10 +9319,10 @@
         <v>9</v>
       </c>
       <c r="G91" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="H91" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="I91" s="13">
         <v>0</v>
@@ -9231,7 +9393,7 @@
         <v>16</v>
       </c>
       <c r="H92" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="I92" s="13">
         <v>0</v>
@@ -9296,10 +9458,10 @@
         <v>10</v>
       </c>
       <c r="G93" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="H93" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="I93" s="13">
         <v>1</v>
@@ -9364,10 +9526,10 @@
         <v>15</v>
       </c>
       <c r="G94" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="H94" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="I94" s="13">
         <v>1</v>
@@ -9432,10 +9594,10 @@
         <v>13</v>
       </c>
       <c r="G95" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="H95" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="I95" s="13">
         <v>0</v>
@@ -9503,10 +9665,10 @@
         <v>19</v>
       </c>
       <c r="G96" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="H96" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="I96" s="13">
         <v>1</v>
@@ -9577,10 +9739,10 @@
         <v>11</v>
       </c>
       <c r="G97" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="H97" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="I97" s="13">
         <v>1</v>
@@ -9642,10 +9804,10 @@
         <v>16</v>
       </c>
       <c r="G98" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="H98" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="I98" s="13">
         <v>1</v>
@@ -9713,10 +9875,10 @@
         <v>9</v>
       </c>
       <c r="G99" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="H99" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="I99" s="13">
         <v>1</v>
@@ -9781,10 +9943,10 @@
         <v>17</v>
       </c>
       <c r="G100" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="H100" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="I100" s="13">
         <v>0</v>
@@ -9849,10 +10011,10 @@
         <v>14</v>
       </c>
       <c r="G101" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="H101" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="I101" s="13">
         <v>1</v>
@@ -9917,10 +10079,10 @@
         <v>18</v>
       </c>
       <c r="G102" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="H102" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="I102" s="13">
         <v>0</v>
@@ -9988,7 +10150,7 @@
         <v>16</v>
       </c>
       <c r="H103" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="I103" s="13">
         <v>0</v>
@@ -10053,10 +10215,10 @@
         <v>11</v>
       </c>
       <c r="G104" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="H104" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="I104" s="13">
         <v>1</v>
@@ -10115,19 +10277,19 @@
         <v>22</v>
       </c>
       <c r="D105" s="5">
-        <v>45106.611944583332</v>
+        <v>45106.613545960645</v>
       </c>
       <c r="E105" s="5">
-        <v>45106.612182326389</v>
+        <v>45106.613972962965</v>
       </c>
       <c r="F105">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G105" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H105" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="I105" s="13">
         <v>1</v>
@@ -10139,7 +10301,7 @@
         <v>1</v>
       </c>
       <c r="L105" s="13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M105" s="13">
         <v>1</v>
@@ -10163,22 +10325,19 @@
         <v>0</v>
       </c>
       <c r="T105">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="U105" s="13">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="V105">
         <v>4</v>
       </c>
-      <c r="W105" s="13">
-        <v>2</v>
-      </c>
       <c r="X105">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="106" spans="1:27" ht="12.75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:24" ht="12.75">
       <c r="A106">
         <v>1010</v>
       </c>
@@ -10189,43 +10348,43 @@
         <v>22</v>
       </c>
       <c r="D106" s="5">
-        <v>45106.611135740743</v>
+        <v>45106.611944583332</v>
       </c>
       <c r="E106" s="5">
-        <v>45106.611274351853</v>
+        <v>45106.612182326389</v>
       </c>
       <c r="F106">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G106" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="H106" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="I106" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J106" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K106" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L106" s="13">
         <v>1</v>
       </c>
       <c r="M106" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N106" s="13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O106" s="13">
         <v>0</v>
       </c>
       <c r="P106" s="13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q106" s="13">
         <v>0</v>
@@ -10236,17 +10395,23 @@
       <c r="S106" s="13">
         <v>0</v>
       </c>
+      <c r="T106">
+        <v>3</v>
+      </c>
+      <c r="U106" s="13">
+        <v>4</v>
+      </c>
+      <c r="V106">
+        <v>4</v>
+      </c>
       <c r="W106" s="13">
-        <v>4</v>
-      </c>
-      <c r="Y106" s="13">
-        <v>1</v>
-      </c>
-      <c r="AA106" s="13">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="107" spans="1:25" ht="12.75">
+        <v>2</v>
+      </c>
+      <c r="X106">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="107" spans="1:27" ht="12.75">
       <c r="A107">
         <v>1010</v>
       </c>
@@ -10257,34 +10422,34 @@
         <v>22</v>
       </c>
       <c r="D107" s="5">
-        <v>45106.61020516204</v>
+        <v>45106.611135740743</v>
       </c>
       <c r="E107" s="5">
-        <v>45106.610512002313</v>
+        <v>45106.611274351853</v>
       </c>
       <c r="F107">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G107" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H107" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I107" s="13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J107" s="13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K107" s="13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L107" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M107" s="13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N107" s="13">
         <v>1</v>
@@ -10293,7 +10458,7 @@
         <v>0</v>
       </c>
       <c r="P107" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q107" s="13">
         <v>0</v>
@@ -10304,23 +10469,17 @@
       <c r="S107" s="13">
         <v>0</v>
       </c>
-      <c r="T107">
+      <c r="W107" s="13">
         <v>4</v>
       </c>
-      <c r="U107" s="13">
-        <v>5</v>
-      </c>
-      <c r="V107">
+      <c r="Y107" s="13">
+        <v>1</v>
+      </c>
+      <c r="AA107" s="13">
         <v>4</v>
       </c>
-      <c r="X107">
-        <v>5</v>
-      </c>
-      <c r="Y107" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="108" spans="1:29" ht="12.75">
+    </row>
+    <row r="108" spans="1:25" ht="12.75">
       <c r="A108">
         <v>1010</v>
       </c>
@@ -10331,67 +10490,70 @@
         <v>22</v>
       </c>
       <c r="D108" s="5">
-        <v>45106.605655509258</v>
+        <v>45106.61020516204</v>
       </c>
       <c r="E108" s="5">
-        <v>45106.605843101854</v>
+        <v>45106.610512002313</v>
       </c>
       <c r="F108">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="G108" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H108" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="I108" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J108" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K108" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L108" s="13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M108" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N108" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O108" s="13">
         <v>0</v>
       </c>
       <c r="P108" s="13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q108" s="13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R108" s="13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S108" s="13">
         <v>0</v>
       </c>
-      <c r="W108" s="13">
-        <v>3</v>
-      </c>
-      <c r="AA108" s="13">
+      <c r="T108">
+        <v>4</v>
+      </c>
+      <c r="U108" s="13">
         <v>5</v>
       </c>
-      <c r="AB108">
-        <v>3</v>
-      </c>
-      <c r="AC108" s="13">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="109" spans="1:25" ht="12.75">
+      <c r="V108">
+        <v>4</v>
+      </c>
+      <c r="X108">
+        <v>5</v>
+      </c>
+      <c r="Y108" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:29" ht="12.75">
       <c r="A109">
         <v>1010</v>
       </c>
@@ -10402,19 +10564,19 @@
         <v>22</v>
       </c>
       <c r="D109" s="5">
-        <v>45106.606442766206</v>
+        <v>45106.605655509258</v>
       </c>
       <c r="E109" s="5">
-        <v>45106.606859201391</v>
+        <v>45106.605843101854</v>
       </c>
       <c r="F109">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G109" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H109" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="I109" s="13">
         <v>0</v>
@@ -10423,7 +10585,7 @@
         <v>0</v>
       </c>
       <c r="K109" s="13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L109" s="13">
         <v>1</v>
@@ -10432,34 +10594,37 @@
         <v>0</v>
       </c>
       <c r="N109" s="13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O109" s="13">
         <v>0</v>
       </c>
       <c r="P109" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q109" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R109" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S109" s="13">
         <v>0</v>
       </c>
-      <c r="V109">
+      <c r="W109" s="13">
+        <v>3</v>
+      </c>
+      <c r="AA109" s="13">
         <v>5</v>
       </c>
-      <c r="W109" s="13">
-        <v>2</v>
-      </c>
-      <c r="Y109" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="110" spans="1:24" ht="12.75">
+      <c r="AB109">
+        <v>3</v>
+      </c>
+      <c r="AC109" s="13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="110" spans="1:25" ht="12.75">
       <c r="A110">
         <v>1010</v>
       </c>
@@ -10470,37 +10635,37 @@
         <v>22</v>
       </c>
       <c r="D110" s="5">
-        <v>45106.603596238427</v>
+        <v>45106.606442766206</v>
       </c>
       <c r="E110" s="5">
-        <v>45106.604159872688</v>
+        <v>45106.606859201391</v>
       </c>
       <c r="F110">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G110" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="H110" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="I110" s="13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J110" s="13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K110" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L110" s="13">
         <v>1</v>
       </c>
       <c r="M110" s="13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N110" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O110" s="13">
         <v>0</v>
@@ -10517,20 +10682,17 @@
       <c r="S110" s="13">
         <v>0</v>
       </c>
-      <c r="T110">
-        <v>4</v>
-      </c>
-      <c r="U110" s="13">
+      <c r="V110">
         <v>5</v>
       </c>
       <c r="W110" s="13">
-        <v>1</v>
-      </c>
-      <c r="X110">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="111" spans="1:29" ht="12.75">
+        <v>2</v>
+      </c>
+      <c r="Y110" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:28" ht="12.75">
       <c r="A111">
         <v>1010</v>
       </c>
@@ -10541,20 +10703,20 @@
         <v>22</v>
       </c>
       <c r="D111" s="5">
-        <v>45106.607457256941</v>
+        <v>45106.612794351851</v>
       </c>
       <c r="E111" s="5">
-        <v>45106.607822164355</v>
+        <v>45106.613005173611</v>
       </c>
       <c r="F111">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="G111" t="s">
+        <v>66</v>
+      </c>
+      <c r="H111" t="s">
         <v>67</v>
       </c>
-      <c r="H111" t="s">
-        <v>68</v>
-      </c>
       <c r="I111" s="13">
         <v>0</v>
       </c>
@@ -10565,43 +10727,40 @@
         <v>0</v>
       </c>
       <c r="L111" s="13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M111" s="13">
         <v>0</v>
       </c>
       <c r="N111" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O111" s="13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P111" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q111" s="13">
         <v>1</v>
       </c>
       <c r="R111" s="13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S111" s="13">
         <v>0</v>
       </c>
-      <c r="W111" s="13">
-        <v>1</v>
-      </c>
-      <c r="Z111">
+      <c r="Y111" s="13">
+        <v>1</v>
+      </c>
+      <c r="AA111" s="13">
+        <v>4</v>
+      </c>
+      <c r="AB111">
         <v>3</v>
       </c>
-      <c r="AB111">
-        <v>2</v>
-      </c>
-      <c r="AC111" s="13">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="112" spans="1:28" ht="12.75">
+    </row>
+    <row r="112" spans="1:24" ht="12.75">
       <c r="A112">
         <v>1010</v>
       </c>
@@ -10612,66 +10771,208 @@
         <v>22</v>
       </c>
       <c r="D112" s="5">
+        <v>45106.603596238427</v>
+      </c>
+      <c r="E112" s="5">
+        <v>45106.604159872688</v>
+      </c>
+      <c r="F112">
+        <v>10</v>
+      </c>
+      <c r="G112" t="s">
+        <v>69</v>
+      </c>
+      <c r="H112" t="s">
+        <v>70</v>
+      </c>
+      <c r="I112" s="13">
+        <v>1</v>
+      </c>
+      <c r="J112" s="13">
+        <v>1</v>
+      </c>
+      <c r="K112" s="13">
+        <v>0</v>
+      </c>
+      <c r="L112" s="13">
+        <v>1</v>
+      </c>
+      <c r="M112" s="13">
+        <v>1</v>
+      </c>
+      <c r="N112" s="13">
+        <v>0</v>
+      </c>
+      <c r="O112" s="13">
+        <v>0</v>
+      </c>
+      <c r="P112" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q112" s="13">
+        <v>0</v>
+      </c>
+      <c r="R112" s="13">
+        <v>0</v>
+      </c>
+      <c r="S112" s="13">
+        <v>0</v>
+      </c>
+      <c r="T112">
+        <v>4</v>
+      </c>
+      <c r="U112" s="13">
+        <v>5</v>
+      </c>
+      <c r="W112" s="13">
+        <v>1</v>
+      </c>
+      <c r="X112">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="113" spans="1:29" ht="12.75">
+      <c r="A113">
+        <v>1010</v>
+      </c>
+      <c r="B113" t="s">
+        <v>30</v>
+      </c>
+      <c r="C113" t="s">
+        <v>22</v>
+      </c>
+      <c r="D113" s="5">
+        <v>45106.607457256941</v>
+      </c>
+      <c r="E113" s="5">
+        <v>45106.607822164355</v>
+      </c>
+      <c r="F113">
+        <v>14</v>
+      </c>
+      <c r="G113" t="s">
+        <v>72</v>
+      </c>
+      <c r="H113" t="s">
+        <v>73</v>
+      </c>
+      <c r="I113" s="13">
+        <v>0</v>
+      </c>
+      <c r="J113" s="13">
+        <v>0</v>
+      </c>
+      <c r="K113" s="13">
+        <v>0</v>
+      </c>
+      <c r="L113" s="13">
+        <v>1</v>
+      </c>
+      <c r="M113" s="13">
+        <v>0</v>
+      </c>
+      <c r="N113" s="13">
+        <v>0</v>
+      </c>
+      <c r="O113" s="13">
+        <v>1</v>
+      </c>
+      <c r="P113" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q113" s="13">
+        <v>1</v>
+      </c>
+      <c r="R113" s="13">
+        <v>1</v>
+      </c>
+      <c r="S113" s="13">
+        <v>0</v>
+      </c>
+      <c r="W113" s="13">
+        <v>1</v>
+      </c>
+      <c r="Z113">
+        <v>3</v>
+      </c>
+      <c r="AB113">
+        <v>2</v>
+      </c>
+      <c r="AC113" s="13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="114" spans="1:28" ht="12.75">
+      <c r="A114">
+        <v>1010</v>
+      </c>
+      <c r="B114" t="s">
+        <v>30</v>
+      </c>
+      <c r="C114" t="s">
+        <v>22</v>
+      </c>
+      <c r="D114" s="5">
         <v>45106.602430300925</v>
       </c>
-      <c r="E112" s="5">
+      <c r="E114" s="5">
         <v>45106.602966574072</v>
       </c>
-      <c r="F112">
+      <c r="F114">
         <v>9</v>
       </c>
-      <c r="G112" t="s">
+      <c r="G114" t="s">
         <v>16</v>
       </c>
-      <c r="H112" t="s">
-        <v>71</v>
-      </c>
-      <c r="I112" s="13">
-        <v>1</v>
-      </c>
-      <c r="J112" s="13">
-        <v>1</v>
-      </c>
-      <c r="K112" s="13">
-        <v>1</v>
-      </c>
-      <c r="L112" s="13">
-        <v>1</v>
-      </c>
-      <c r="M112" s="13">
-        <v>0</v>
-      </c>
-      <c r="N112" s="13">
-        <v>0</v>
-      </c>
-      <c r="O112" s="13">
-        <v>0</v>
-      </c>
-      <c r="P112" s="13">
-        <v>0</v>
-      </c>
-      <c r="Q112" s="13">
-        <v>1</v>
-      </c>
-      <c r="R112" s="13">
-        <v>0</v>
-      </c>
-      <c r="S112" s="13">
-        <v>0</v>
-      </c>
-      <c r="T112">
-        <v>1</v>
-      </c>
-      <c r="U112" s="13">
-        <v>1</v>
-      </c>
-      <c r="V112">
-        <v>1</v>
-      </c>
-      <c r="W112" s="13">
+      <c r="H114" t="s">
+        <v>76</v>
+      </c>
+      <c r="I114" s="13">
+        <v>1</v>
+      </c>
+      <c r="J114" s="13">
+        <v>1</v>
+      </c>
+      <c r="K114" s="13">
+        <v>1</v>
+      </c>
+      <c r="L114" s="13">
+        <v>1</v>
+      </c>
+      <c r="M114" s="13">
+        <v>0</v>
+      </c>
+      <c r="N114" s="13">
+        <v>0</v>
+      </c>
+      <c r="O114" s="13">
+        <v>0</v>
+      </c>
+      <c r="P114" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q114" s="13">
+        <v>1</v>
+      </c>
+      <c r="R114" s="13">
+        <v>0</v>
+      </c>
+      <c r="S114" s="13">
+        <v>0</v>
+      </c>
+      <c r="T114">
+        <v>1</v>
+      </c>
+      <c r="U114" s="13">
+        <v>1</v>
+      </c>
+      <c r="V114">
+        <v>1</v>
+      </c>
+      <c r="W114" s="13">
         <v>4</v>
       </c>
-      <c r="AB112">
+      <c r="AB114">
         <v>2</v>
       </c>
     </row>
@@ -10685,17 +10986,17 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait"/>
   <ignoredErrors>
-    <ignoredError sqref="A1:AC112" numberStoredAsText="1"/>
+    <ignoredError sqref="A1:AC114" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43c2ad52-9acb-404a-b754-cc42c1d151a5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{d961dec0-d090-41ea-beb7-3a96b2d22305}">
   <sheetPr>
     <tabColor rgb="FF378E00"/>
   </sheetPr>
-  <dimension ref="A1:K84"/>
+  <dimension ref="A1:K92"/>
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="A1">
       <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
@@ -10724,30 +11025,30 @@
       <c r="D1" s="7"/>
       <c r="E1" s="7"/>
       <c r="J1" s="14" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="K1" s="6" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
     </row>
     <row r="2" spans="4:11" s="9" customFormat="1" ht="30" customHeight="1">
       <c r="D2" s="8"/>
       <c r="E2" s="8"/>
       <c r="J2" s="15" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="K2" s="9" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
     </row>
     <row r="3" spans="4:11" s="12" customFormat="1" ht="131.25" customHeight="1">
       <c r="D3" s="11"/>
       <c r="E3" s="11"/>
       <c r="J3" s="20" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="K3" s="12" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
     </row>
     <row r="4" spans="1:11" s="10" customFormat="1" ht="12.75">
@@ -10767,22 +11068,22 @@
         <v>12</v>
       </c>
       <c r="F4" s="10" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="G4" s="10" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="H4" s="10" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="I4" s="10" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="J4" s="10" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="K4" s="10" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
     </row>
     <row r="5" spans="1:11" s="19" customFormat="1" ht="12.75">
@@ -10808,10 +11109,10 @@
         <v>1</v>
       </c>
       <c r="H5" s="16" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="I5" s="16" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="J5" s="18">
         <v>1</v>
@@ -10843,10 +11144,10 @@
         <v>1</v>
       </c>
       <c r="H6" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="I6" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="J6" s="13">
         <v>1</v>
@@ -10878,10 +11179,10 @@
         <v>2</v>
       </c>
       <c r="H7" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="I7" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="J7" s="13">
         <v>1</v>
@@ -10913,10 +11214,10 @@
         <v>2</v>
       </c>
       <c r="H8" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="I8" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="J8" s="13">
         <v>1</v>
@@ -10948,10 +11249,10 @@
         <v>1</v>
       </c>
       <c r="H9" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="I9" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="J9" s="13">
         <v>1</v>
@@ -10983,10 +11284,10 @@
         <v>2</v>
       </c>
       <c r="H10" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="I10" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="J10" s="13">
         <v>1</v>
@@ -11018,10 +11319,10 @@
         <v>1</v>
       </c>
       <c r="H11" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="I11" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="J11" s="13">
         <v>1</v>
@@ -11053,10 +11354,10 @@
         <v>2</v>
       </c>
       <c r="H12" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="I12" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="J12" s="13">
         <v>1</v>
@@ -11088,10 +11389,10 @@
         <v>1</v>
       </c>
       <c r="H13" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="I13" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="J13" s="13">
         <v>1</v>
@@ -11123,10 +11424,10 @@
         <v>1</v>
       </c>
       <c r="H14" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="I14" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="J14" s="13">
         <v>1</v>
@@ -11158,10 +11459,10 @@
         <v>2</v>
       </c>
       <c r="H15" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="I15" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="J15" s="13">
         <v>1</v>
@@ -11193,10 +11494,10 @@
         <v>2</v>
       </c>
       <c r="H16" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="I16" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="J16" s="13">
         <v>1</v>
@@ -11228,10 +11529,10 @@
         <v>1</v>
       </c>
       <c r="H17" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="I17" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="J17" s="13">
         <v>1</v>
@@ -11263,10 +11564,10 @@
         <v>2</v>
       </c>
       <c r="H18" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="I18" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="J18" s="13">
         <v>1</v>
@@ -11298,10 +11599,10 @@
         <v>1</v>
       </c>
       <c r="H19" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="I19" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="J19" s="13">
         <v>1</v>
@@ -11333,10 +11634,10 @@
         <v>2</v>
       </c>
       <c r="H20" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="I20" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="J20" s="13">
         <v>1</v>
@@ -11368,10 +11669,10 @@
         <v>1</v>
       </c>
       <c r="H21" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="I21" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="J21" s="13">
         <v>1</v>
@@ -11403,10 +11704,10 @@
         <v>1</v>
       </c>
       <c r="H22" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="I22" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="J22" s="13">
         <v>1</v>
@@ -11438,10 +11739,10 @@
         <v>2</v>
       </c>
       <c r="H23" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="I23" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="J23" s="13">
         <v>1</v>
@@ -11473,10 +11774,10 @@
         <v>2</v>
       </c>
       <c r="H24" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="I24" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="J24" s="13">
         <v>1</v>
@@ -11508,10 +11809,10 @@
         <v>1</v>
       </c>
       <c r="H25" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="I25" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="J25" s="13">
         <v>1</v>
@@ -11543,10 +11844,10 @@
         <v>2</v>
       </c>
       <c r="H26" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="I26" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="J26" s="13">
         <v>1</v>
@@ -11578,10 +11879,10 @@
         <v>1</v>
       </c>
       <c r="H27" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="I27" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="J27" s="13">
         <v>1</v>
@@ -11613,10 +11914,10 @@
         <v>2</v>
       </c>
       <c r="H28" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="I28" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="J28" s="13">
         <v>1</v>
@@ -11648,10 +11949,10 @@
         <v>1</v>
       </c>
       <c r="H29" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="I29" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="J29" s="13">
         <v>1</v>
@@ -11683,10 +11984,10 @@
         <v>1</v>
       </c>
       <c r="H30" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="I30" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="J30" s="13">
         <v>1</v>
@@ -11718,10 +12019,10 @@
         <v>2</v>
       </c>
       <c r="H31" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="I31" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="J31" s="13">
         <v>1</v>
@@ -11753,10 +12054,10 @@
         <v>2</v>
       </c>
       <c r="H32" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="I32" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="J32" s="13">
         <v>1</v>
@@ -11788,10 +12089,10 @@
         <v>1</v>
       </c>
       <c r="H33" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="I33" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="J33" s="13">
         <v>1</v>
@@ -11823,10 +12124,10 @@
         <v>2</v>
       </c>
       <c r="H34" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="I34" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="J34" s="13">
         <v>1</v>
@@ -11858,10 +12159,10 @@
         <v>1</v>
       </c>
       <c r="H35" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="I35" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="J35" s="13">
         <v>1</v>
@@ -11893,10 +12194,10 @@
         <v>2</v>
       </c>
       <c r="H36" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="I36" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="J36" s="13">
         <v>1</v>
@@ -11928,10 +12229,10 @@
         <v>1</v>
       </c>
       <c r="H37" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="I37" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="J37" s="13">
         <v>1</v>
@@ -11963,10 +12264,10 @@
         <v>1</v>
       </c>
       <c r="H38" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="I38" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="J38" s="13">
         <v>1</v>
@@ -11998,10 +12299,10 @@
         <v>2</v>
       </c>
       <c r="H39" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="I39" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="J39" s="13">
         <v>1</v>
@@ -12033,10 +12334,10 @@
         <v>2</v>
       </c>
       <c r="H40" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="I40" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="J40" s="13">
         <v>1</v>
@@ -12068,10 +12369,10 @@
         <v>1</v>
       </c>
       <c r="H41" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="I41" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="J41" s="13">
         <v>1</v>
@@ -12103,10 +12404,10 @@
         <v>2</v>
       </c>
       <c r="H42" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="I42" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="J42" s="13">
         <v>1</v>
@@ -12138,10 +12439,10 @@
         <v>1</v>
       </c>
       <c r="H43" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="I43" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="J43" s="13">
         <v>1</v>
@@ -12173,10 +12474,10 @@
         <v>2</v>
       </c>
       <c r="H44" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="I44" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="J44" s="13">
         <v>1</v>
@@ -12208,10 +12509,10 @@
         <v>1</v>
       </c>
       <c r="H45" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="I45" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="J45" s="13">
         <v>1</v>
@@ -12243,10 +12544,10 @@
         <v>1</v>
       </c>
       <c r="H46" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="I46" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="J46" s="13">
         <v>1</v>
@@ -12278,10 +12579,10 @@
         <v>2</v>
       </c>
       <c r="H47" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="I47" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="J47" s="13">
         <v>1</v>
@@ -12313,10 +12614,10 @@
         <v>2</v>
       </c>
       <c r="H48" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="I48" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="J48" s="13">
         <v>1</v>
@@ -12348,10 +12649,10 @@
         <v>1</v>
       </c>
       <c r="H49" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="I49" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="J49" s="13">
         <v>1</v>
@@ -12383,10 +12684,10 @@
         <v>2</v>
       </c>
       <c r="H50" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="I50" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="J50" s="13">
         <v>1</v>
@@ -12418,10 +12719,10 @@
         <v>1</v>
       </c>
       <c r="H51" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="I51" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="J51" s="13">
         <v>1</v>
@@ -12453,10 +12754,10 @@
         <v>2</v>
       </c>
       <c r="H52" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="I52" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="J52" s="13">
         <v>1</v>
@@ -12488,10 +12789,10 @@
         <v>1</v>
       </c>
       <c r="H53" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="I53" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="J53" s="13">
         <v>1</v>
@@ -12523,10 +12824,10 @@
         <v>1</v>
       </c>
       <c r="H54" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="I54" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="J54" s="13">
         <v>1</v>
@@ -12558,10 +12859,10 @@
         <v>2</v>
       </c>
       <c r="H55" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="I55" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="J55" s="13">
         <v>1</v>
@@ -12593,10 +12894,10 @@
         <v>2</v>
       </c>
       <c r="H56" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="I56" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="J56" s="13">
         <v>1</v>
@@ -12628,10 +12929,10 @@
         <v>1</v>
       </c>
       <c r="H57" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="I57" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="J57" s="13">
         <v>1</v>
@@ -12663,10 +12964,10 @@
         <v>2</v>
       </c>
       <c r="H58" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="I58" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="J58" s="13">
         <v>1</v>
@@ -12698,10 +12999,10 @@
         <v>1</v>
       </c>
       <c r="H59" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="I59" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="J59" s="13">
         <v>1</v>
@@ -12733,10 +13034,10 @@
         <v>2</v>
       </c>
       <c r="H60" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="I60" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="J60" s="13">
         <v>1</v>
@@ -12768,10 +13069,10 @@
         <v>1</v>
       </c>
       <c r="H61" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="I61" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="J61" s="13">
         <v>1</v>
@@ -12803,10 +13104,10 @@
         <v>1</v>
       </c>
       <c r="H62" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="I62" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="J62" s="13">
         <v>1</v>
@@ -12838,10 +13139,10 @@
         <v>2</v>
       </c>
       <c r="H63" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="I63" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="J63" s="13">
         <v>1</v>
@@ -12873,10 +13174,10 @@
         <v>2</v>
       </c>
       <c r="H64" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="I64" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="J64" s="13">
         <v>1</v>
@@ -12908,10 +13209,10 @@
         <v>1</v>
       </c>
       <c r="H65" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="I65" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="J65" s="13">
         <v>1</v>
@@ -12943,10 +13244,10 @@
         <v>2</v>
       </c>
       <c r="H66" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="I66" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="J66" s="13">
         <v>1</v>
@@ -12978,10 +13279,10 @@
         <v>1</v>
       </c>
       <c r="H67" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="I67" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="J67" s="13">
         <v>1</v>
@@ -13013,10 +13314,10 @@
         <v>2</v>
       </c>
       <c r="H68" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="I68" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="J68" s="13">
         <v>1</v>
@@ -13048,10 +13349,10 @@
         <v>1</v>
       </c>
       <c r="H69" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="I69" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="J69" s="13">
         <v>1</v>
@@ -13083,10 +13384,10 @@
         <v>1</v>
       </c>
       <c r="H70" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="I70" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="J70" s="13">
         <v>1</v>
@@ -13118,10 +13419,10 @@
         <v>2</v>
       </c>
       <c r="H71" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="I71" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="J71" s="13">
         <v>1</v>
@@ -13153,10 +13454,10 @@
         <v>2</v>
       </c>
       <c r="H72" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="I72" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="J72" s="13">
         <v>1</v>
@@ -13188,10 +13489,10 @@
         <v>1</v>
       </c>
       <c r="H73" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="I73" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="J73" s="13">
         <v>1</v>
@@ -13223,10 +13524,10 @@
         <v>2</v>
       </c>
       <c r="H74" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="I74" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="J74" s="13">
         <v>1</v>
@@ -13258,10 +13559,10 @@
         <v>1</v>
       </c>
       <c r="H75" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="I75" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="J75" s="13">
         <v>1</v>
@@ -13293,10 +13594,10 @@
         <v>2</v>
       </c>
       <c r="H76" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="I76" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="J76" s="13">
         <v>1</v>
@@ -13328,10 +13629,10 @@
         <v>1</v>
       </c>
       <c r="H77" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="I77" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="J77" s="13">
         <v>1</v>
@@ -13363,10 +13664,10 @@
         <v>1</v>
       </c>
       <c r="H78" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="I78" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="J78" s="13">
         <v>1</v>
@@ -13398,10 +13699,10 @@
         <v>2</v>
       </c>
       <c r="H79" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="I79" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="J79" s="13">
         <v>1</v>
@@ -13433,10 +13734,10 @@
         <v>2</v>
       </c>
       <c r="H80" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="I80" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="J80" s="13">
         <v>1</v>
@@ -13468,10 +13769,10 @@
         <v>1</v>
       </c>
       <c r="H81" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="I81" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="J81" s="13">
         <v>1</v>
@@ -13503,10 +13804,10 @@
         <v>2</v>
       </c>
       <c r="H82" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="I82" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="J82" s="13">
         <v>1</v>
@@ -13538,10 +13839,10 @@
         <v>1</v>
       </c>
       <c r="H83" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="I83" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="J83" s="13">
         <v>1</v>
@@ -13573,16 +13874,296 @@
         <v>2</v>
       </c>
       <c r="H84" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="I84" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="J84" s="13">
         <v>1</v>
       </c>
       <c r="K84">
         <v>4</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" ht="12.75">
+      <c r="A85">
+        <v>1011</v>
+      </c>
+      <c r="B85" t="s">
+        <v>31</v>
+      </c>
+      <c r="C85" t="s">
+        <v>16</v>
+      </c>
+      <c r="D85" s="5">
+        <v>45106.624546608793</v>
+      </c>
+      <c r="E85" s="5">
+        <v>45106.624875335649</v>
+      </c>
+      <c r="F85">
+        <v>3</v>
+      </c>
+      <c r="G85">
+        <v>1</v>
+      </c>
+      <c r="H85" t="s">
+        <v>206</v>
+      </c>
+      <c r="I85" t="s">
+        <v>207</v>
+      </c>
+      <c r="J85" s="13">
+        <v>1</v>
+      </c>
+      <c r="K85">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" ht="12.75">
+      <c r="A86">
+        <v>1011</v>
+      </c>
+      <c r="B86" t="s">
+        <v>31</v>
+      </c>
+      <c r="C86" t="s">
+        <v>16</v>
+      </c>
+      <c r="D86" s="5">
+        <v>45106.625587499999</v>
+      </c>
+      <c r="E86" s="5">
+        <v>45106.625960300924</v>
+      </c>
+      <c r="F86">
+        <v>4</v>
+      </c>
+      <c r="G86">
+        <v>1</v>
+      </c>
+      <c r="H86" t="s">
+        <v>218</v>
+      </c>
+      <c r="I86" t="s">
+        <v>219</v>
+      </c>
+      <c r="J86" s="13">
+        <v>1</v>
+      </c>
+      <c r="K86">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" ht="12.75">
+      <c r="A87">
+        <v>1011</v>
+      </c>
+      <c r="B87" t="s">
+        <v>31</v>
+      </c>
+      <c r="C87" t="s">
+        <v>16</v>
+      </c>
+      <c r="D87" s="5">
+        <v>45106.622179907405</v>
+      </c>
+      <c r="E87" s="5">
+        <v>45106.62271909722</v>
+      </c>
+      <c r="F87">
+        <v>1</v>
+      </c>
+      <c r="G87">
+        <v>1</v>
+      </c>
+      <c r="H87" t="s">
+        <v>212</v>
+      </c>
+      <c r="I87" t="s">
+        <v>213</v>
+      </c>
+      <c r="J87" s="13">
+        <v>1</v>
+      </c>
+      <c r="K87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" ht="12.75">
+      <c r="A88">
+        <v>1011</v>
+      </c>
+      <c r="B88" t="s">
+        <v>31</v>
+      </c>
+      <c r="C88" t="s">
+        <v>16</v>
+      </c>
+      <c r="D88" s="5">
+        <v>45106.623442708333</v>
+      </c>
+      <c r="E88" s="5">
+        <v>45106.623789641206</v>
+      </c>
+      <c r="F88">
+        <v>2</v>
+      </c>
+      <c r="G88">
+        <v>1</v>
+      </c>
+      <c r="H88" t="s">
+        <v>216</v>
+      </c>
+      <c r="I88" t="s">
+        <v>217</v>
+      </c>
+      <c r="J88" s="13">
+        <v>1</v>
+      </c>
+      <c r="K88">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" ht="12.75">
+      <c r="A89">
+        <v>1012</v>
+      </c>
+      <c r="B89" t="s">
+        <v>32</v>
+      </c>
+      <c r="C89" t="s">
+        <v>18</v>
+      </c>
+      <c r="D89" s="5">
+        <v>45106.624673078702</v>
+      </c>
+      <c r="E89" s="5">
+        <v>45106.625191979168</v>
+      </c>
+      <c r="F89">
+        <v>1</v>
+      </c>
+      <c r="G89">
+        <v>1</v>
+      </c>
+      <c r="H89" t="s">
+        <v>206</v>
+      </c>
+      <c r="I89" t="s">
+        <v>207</v>
+      </c>
+      <c r="J89" s="13">
+        <v>1</v>
+      </c>
+      <c r="K89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" ht="12.75">
+      <c r="A90">
+        <v>1012</v>
+      </c>
+      <c r="B90" t="s">
+        <v>32</v>
+      </c>
+      <c r="C90" t="s">
+        <v>18</v>
+      </c>
+      <c r="D90" s="5">
+        <v>45106.627263402777</v>
+      </c>
+      <c r="E90" s="5">
+        <v>45106.62766859954</v>
+      </c>
+      <c r="F90">
+        <v>3</v>
+      </c>
+      <c r="G90">
+        <v>1</v>
+      </c>
+      <c r="H90" t="s">
+        <v>218</v>
+      </c>
+      <c r="I90" t="s">
+        <v>219</v>
+      </c>
+      <c r="J90" s="13">
+        <v>1</v>
+      </c>
+      <c r="K90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" ht="12.75">
+      <c r="A91">
+        <v>1012</v>
+      </c>
+      <c r="B91" t="s">
+        <v>32</v>
+      </c>
+      <c r="C91" t="s">
+        <v>18</v>
+      </c>
+      <c r="D91" s="5">
+        <v>45106.626024444442</v>
+      </c>
+      <c r="E91" s="5">
+        <v>45106.626664432872</v>
+      </c>
+      <c r="F91">
+        <v>2</v>
+      </c>
+      <c r="G91">
+        <v>1</v>
+      </c>
+      <c r="H91" t="s">
+        <v>212</v>
+      </c>
+      <c r="I91" t="s">
+        <v>213</v>
+      </c>
+      <c r="J91" s="13">
+        <v>1</v>
+      </c>
+      <c r="K91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" ht="12.75">
+      <c r="A92">
+        <v>1013</v>
+      </c>
+      <c r="B92" t="s">
+        <v>33</v>
+      </c>
+      <c r="C92" t="s">
+        <v>20</v>
+      </c>
+      <c r="D92" s="5">
+        <v>45106.626800451391</v>
+      </c>
+      <c r="E92" s="5">
+        <v>45106.627543692128</v>
+      </c>
+      <c r="F92">
+        <v>1</v>
+      </c>
+      <c r="G92">
+        <v>1</v>
+      </c>
+      <c r="H92" t="s">
+        <v>208</v>
+      </c>
+      <c r="I92" t="s">
+        <v>209</v>
+      </c>
+      <c r="J92" s="13">
+        <v>1</v>
+      </c>
+      <c r="K92">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -13593,7 +14174,7 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait"/>
   <ignoredErrors>
-    <ignoredError sqref="A1:K84" numberStoredAsText="1"/>
+    <ignoredError sqref="A1:K92" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>